--- a/Excel/Mobile.xlsx
+++ b/Excel/Mobile.xlsx
@@ -12,120 +12,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+  <si>
+    <t>realme Narzo 50A (Oxygen Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme C20 (Cool Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C20 (Cool Grey, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 50A (Oxygen Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 50A (Oxygen Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme C21Y (Cross Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C21Y (Cross Black, 64 GB)</t>
+  </si>
   <si>
     <t>realme C21Y (Cross Blue, 32 GB)</t>
   </si>
   <si>
-    <t>realme C21Y (Cross Black, 32 GB)</t>
-  </si>
-  <si>
     <t>realme C21Y (Cross Blue, 64 GB)</t>
   </si>
   <si>
-    <t>realme C20 (Cool Blue, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme C20 (Cool Grey, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme Narzo 50A (Oxygen Green, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme Narzo 50A (Oxygen Green, 64 GB)</t>
+    <t>realme 9 Pro 5G (Aurora Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 9 Pro 5G (Midnight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme C21 (Cross Black, 32 GB)</t>
   </si>
   <si>
     <t>realme C21 (Cross Black, 64 GB)</t>
   </si>
   <si>
-    <t>realme C21 (Cross Black, 32 GB)</t>
+    <t>realme Narzo 50i (Carbon Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme Narzo 50i (Mint Green, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C25Y (Metal Grey, 64 GB)</t>
   </si>
   <si>
     <t>realme 8 (Cyber Black, 128 GB)</t>
   </si>
   <si>
-    <t>realme Narzo 50i (Mint Green, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme Narzo 50i (Carbon Black, 32 GB)</t>
-  </si>
-  <si>
     <t>realme 8 (Cyber Silver, 128 GB)</t>
   </si>
   <si>
     <t>realme 8i (Space Black, 64 GB)</t>
   </si>
   <si>
-    <t>realme 9 Pro 5G (Aurora Green, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme 9 Pro 5G (Midnight Black, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme 9 Pro 5G (Sunrise Blue, 128 GB)</t>
+    <t>realme C21 (Cross Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme 8i (Space Black, 128 GB)</t>
   </si>
   <si>
     <t>realme 8i (Space Purple, 64 GB)</t>
   </si>
   <si>
-    <t>realme C25Y (Metal Grey, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme 8i (Space Black, 128 GB)</t>
+    <t>realme C11 2021 (Cool Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C11 2021 (Cool Grey, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C11 2021 (Cool Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme C11 2021 (Cool Grey, 64 GB)</t>
   </si>
   <si>
     <t>realme C25_Y (Metal Grey, 128 GB)</t>
   </si>
   <si>
+    <t>realme C25_Y (Metal Grey, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme C25_Y (Glacier Blue, 64 GB)</t>
+  </si>
+  <si>
     <t>realme C25_Y (Glacier Blue, 128 GB)</t>
   </si>
   <si>
-    <t>realme C25Y (Metal Grey, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme C25_Y (Glacier Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme C25_Y (Metal Grey, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme C11 2021 (Cool Blue, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme C11 2021 (Cool Grey, 32 GB)</t>
+    <t>realme 9i (Prism Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Blue, 64 GB)</t>
   </si>
   <si>
     <t>realme C25Y (Glacier Blue, 64 GB)</t>
   </si>
   <si>
-    <t>realme C21 (Cross Blue, 32 GB)</t>
-  </si>
-  <si>
-    <t>realme C25Y (Glacier Blue, 128 GB)</t>
-  </si>
-  <si>
-    <t>realme C11 2021 (Cool Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme 9i (Prism Blue, 64 GB)</t>
-  </si>
-  <si>
-    <t>realme 9i (Prism Black, 128 GB)</t>
-  </si>
-  <si>
     <t>1. realme 8i (Space Black, 128...</t>
   </si>
   <si>
-    <t>2. realme C11 2021 (Cool Blue,...</t>
-  </si>
-  <si>
-    <t>3. realme 9i (Prism Black, 128...</t>
-  </si>
-  <si>
-    <t>4. realme C21 (Cross Black, 64...</t>
-  </si>
-  <si>
-    <t>5. realme C21 (Cross Black, 32...</t>
+    <t>2. realme 9i (Prism Black, 128...</t>
+  </si>
+  <si>
+    <t>3. realme C21 (Cross Black, 64...</t>
+  </si>
+  <si>
+    <t>4. realme C21 (Cross Black, 32...</t>
+  </si>
+  <si>
+    <t>5. realme C11 2021 (Cool Grey,...</t>
   </si>
 </sst>
 </file>
@@ -243,157 +246,157 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
